--- a/QA Class 30_DATA_PARAMERTERIZATION/bin/TestSuite/SAUCE_LOGIN.xlsx
+++ b/QA Class 30_DATA_PARAMERTERIZATION/bin/TestSuite/SAUCE_LOGIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>USERNAME</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>username2</t>
+  </si>
+  <si>
+    <t>username3</t>
+  </si>
+  <si>
+    <t>username4</t>
+  </si>
+  <si>
+    <t>username5</t>
+  </si>
+  <si>
+    <t>username6</t>
+  </si>
+  <si>
+    <t>username7</t>
   </si>
   <si>
     <t>Amount</t>
@@ -995,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
@@ -1044,6 +1065,62 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1067,10 +1144,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1100,22 +1177,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
